--- a/ChorelistGenerator_Output/ChoreList.xlsx
+++ b/ChorelistGenerator_Output/ChoreList.xlsx
@@ -26,124 +26,124 @@
     <t/>
   </si>
   <si>
+    <t>clean boys bathroom pickup towels</t>
+  </si>
+  <si>
+    <t>take out trash</t>
+  </si>
+  <si>
+    <t>Hazel</t>
+  </si>
+  <si>
+    <t>clean &amp; wipe down counters in pantry</t>
+  </si>
+  <si>
+    <t>sweep &amp; mop under bar stools &amp; area between sofa &amp; bar</t>
+  </si>
+  <si>
+    <t>empty/add new litter in cat litter box in storage closet, shake out mat under storage closet cat litter box &amp; sweep and mop storage closet</t>
+  </si>
+  <si>
+    <t>dust fireplace &amp; mantel</t>
+  </si>
+  <si>
+    <t>sweep or vacuum front of house &amp; mop</t>
+  </si>
+  <si>
+    <t>(entryway, dinning room, bedroom hall, hall leading to kitchen)</t>
+  </si>
+  <si>
+    <t>Jesse</t>
+  </si>
+  <si>
+    <t>clean, sweep &amp; mop kitchen bathroom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sweep or vacuum &amp; mop area by garage door </t>
+  </si>
+  <si>
+    <t>dust around living room desk area</t>
+  </si>
+  <si>
+    <t>Sift cat litter box in Daddy &amp; Renee's Room &amp; add new litter if needed, shake out &amp; clean mat and vacuum in front of litter box</t>
+  </si>
+  <si>
+    <t>DO NOT EMPTY OUT OLD LITTER</t>
+  </si>
+  <si>
+    <t>sweep or vacuum &amp; mop kitchen</t>
+  </si>
+  <si>
+    <t>including hall and area outside Daddy &amp; Renee's door, under counters &amp; in corners</t>
+  </si>
+  <si>
+    <t>Ray</t>
+  </si>
+  <si>
     <t>clean &amp; wipe down stove &amp; counters by stove</t>
   </si>
   <si>
-    <t>Hazel</t>
+    <t>wipe off bar</t>
+  </si>
+  <si>
+    <t>pick up area by garage door &amp; vacuum out drawer</t>
+  </si>
+  <si>
+    <t>dust in the entry way and dinning room including desk area</t>
+  </si>
+  <si>
+    <t>empty trash can next to desk</t>
+  </si>
+  <si>
+    <t>sweep or vacuum living room &amp; mop</t>
+  </si>
+  <si>
+    <t>move Daisy's crate &amp; sofas</t>
+  </si>
+  <si>
+    <t>Ruby</t>
+  </si>
+  <si>
+    <t>wipe down counters &amp; island in kitchen</t>
+  </si>
+  <si>
+    <t>dust windows and doors</t>
+  </si>
+  <si>
+    <t>clean kitchen garbage cans area</t>
+  </si>
+  <si>
+    <t>sweep or vacuum &amp; mop pantry</t>
+  </si>
+  <si>
+    <t>sweep or vacuum &amp; mop kids bathroom</t>
+  </si>
+  <si>
+    <t>William</t>
+  </si>
+  <si>
+    <t>The creator</t>
   </si>
   <si>
     <t>sweep &amp; leaf blow back porch on both sides of gate</t>
   </si>
   <si>
-    <t>wipe down counters &amp; island in kitchen</t>
-  </si>
-  <si>
     <t>pick up living room</t>
   </si>
   <si>
     <t>fold &amp; put away blankets</t>
   </si>
   <si>
-    <t>sweep or vacuum &amp; mop pantry</t>
-  </si>
-  <si>
-    <t>sweep or vacuum living room &amp; mop</t>
-  </si>
-  <si>
-    <t>move Daisy's crate &amp; sofas</t>
-  </si>
-  <si>
-    <t>Jesse</t>
-  </si>
-  <si>
-    <t>clean &amp; wipe down counters in pantry</t>
-  </si>
-  <si>
-    <t>empty/add new litter in cat litter box in storage closet, shake out mat under storage closet cat litter box &amp; sweep and mop storage closet</t>
-  </si>
-  <si>
-    <t>pick up area by garage door &amp; vacuum out drawer</t>
-  </si>
-  <si>
-    <t>Sift cat litter box in Daddy &amp; Renee's Room &amp; add new litter if needed, shake out &amp; clean mat and vacuum in front of litter box</t>
-  </si>
-  <si>
-    <t>DO NOT EMPTY OUT OLD LITTER</t>
-  </si>
-  <si>
-    <t>clean boys bathroom pickup towels</t>
-  </si>
-  <si>
-    <t>take out trash</t>
-  </si>
-  <si>
-    <t>Ray</t>
-  </si>
-  <si>
-    <t>sweep &amp; mop under bar stools &amp; area between sofa &amp; bar</t>
-  </si>
-  <si>
-    <t>clean, sweep &amp; mop kitchen bathroom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sweep or vacuum &amp; mop area by garage door </t>
+    <t>clean microwave with spray cleaner &amp; clorox wipes</t>
+  </si>
+  <si>
+    <t>clean, dust &amp; straighten area on top of &amp; around Daisy's crate &amp; console bench under window</t>
+  </si>
+  <si>
+    <t xml:space="preserve">empty cat litter box in dinning room and add new litter shake out mat and sweep in front of litter box </t>
   </si>
   <si>
     <t xml:space="preserve">sweep &amp; leaf blow front porch </t>
-  </si>
-  <si>
-    <t>sweep or vacuum front of house &amp; mop</t>
-  </si>
-  <si>
-    <t>(entryway, dinning room, bedroom hall, hall leading to kitchen)</t>
-  </si>
-  <si>
-    <t>Ruby</t>
-  </si>
-  <si>
-    <t>clean kitchen garbage cans area</t>
-  </si>
-  <si>
-    <t>clean microwave with spray cleaner &amp; clorox wipes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">empty cat litter box in dinning room and add new litter shake out mat and sweep in front of litter box </t>
-  </si>
-  <si>
-    <t>dust fireplace &amp; mantel</t>
-  </si>
-  <si>
-    <t>dust around living room desk area</t>
-  </si>
-  <si>
-    <t>sweep or vacuum &amp; mop kitchen</t>
-  </si>
-  <si>
-    <t>including hall and area outside Daddy &amp; Renee's door, under counters &amp; in corners</t>
-  </si>
-  <si>
-    <t>William</t>
-  </si>
-  <si>
-    <t>The creator</t>
-  </si>
-  <si>
-    <t>sweep or vacuum &amp; mop kids bathroom</t>
-  </si>
-  <si>
-    <t>wipe off bar</t>
-  </si>
-  <si>
-    <t>dust windows and doors</t>
-  </si>
-  <si>
-    <t>dust in the entry way and dinning room including desk area</t>
-  </si>
-  <si>
-    <t>empty trash can next to desk</t>
-  </si>
-  <si>
-    <t>clean, dust &amp; straighten area on top of &amp; around Daisy's crate &amp; console bench under window</t>
   </si>
 </sst>
 </file>
@@ -151,13 +151,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <color indexed="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -168,7 +178,7 @@
       <patternFill patternType="darkGray"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -176,12 +186,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <top style="dashed"/>
+    </border>
+    <border>
+      <top style="dashed"/>
+      <bottom style="dashed"/>
+    </border>
+    <border>
+      <top style="thick"/>
+    </border>
+    <border>
+      <top style="thick"/>
+      <bottom style="dashed"/>
+    </border>
+    <border>
+      <top style="dashed"/>
+      <bottom style="thick"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true">
+      <alignment wrapText="true"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -224,10 +273,10 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D3" t="s">
         <v>3</v>
@@ -235,13 +284,13 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
       </c>
       <c r="D4" t="s">
         <v>3</v>
@@ -249,13 +298,13 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
         <v>3</v>
@@ -263,13 +312,13 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D6" t="s">
         <v>3</v>
@@ -283,7 +332,7 @@
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
         <v>3</v>
@@ -308,7 +357,7 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
         <v>13</v>
@@ -336,7 +385,7 @@
         <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
@@ -392,7 +441,7 @@
         <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
@@ -420,7 +469,7 @@
         <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -431,13 +480,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C18" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D18" t="s">
         <v>3</v>
@@ -445,13 +494,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
         <v>29</v>
-      </c>
-      <c r="B19" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" t="s">
-        <v>28</v>
       </c>
       <c r="D19" t="s">
         <v>3</v>
@@ -459,13 +508,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B20" t="s">
         <v>3</v>
       </c>
       <c r="C20" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
         <v>3</v>
@@ -473,13 +522,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
         <v>3</v>
@@ -487,13 +536,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B22" t="s">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D22" t="s">
         <v>3</v>
@@ -501,30 +550,30 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B23" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="C23" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
         <v>35</v>
       </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>36</v>
-      </c>
-      <c r="D24" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="25">
@@ -532,55 +581,55 @@
         <v>38</v>
       </c>
       <c r="B25" t="s">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
         <v>36</v>
-      </c>
-      <c r="D25" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
         <v>3</v>
       </c>
       <c r="C26" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
         <v>36</v>
-      </c>
-      <c r="D26" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
         <v>3</v>
       </c>
       <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
         <v>36</v>
-      </c>
-      <c r="D27" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
         <v>36</v>
-      </c>
-      <c r="D28" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="29">
@@ -591,10 +640,10 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
         <v>36</v>
-      </c>
-      <c r="D29" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
